--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="alpha4F-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="alpha4F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9735639125594215</v>
+        <v>0.9735639125594217</v>
       </c>
       <c r="D13">
         <v>0.9941311660881583</v>
@@ -958,13 +958,13 @@
         <v>0.9975720190588698</v>
       </c>
       <c r="F13">
-        <v>0.9735639125594215</v>
+        <v>0.9735639125594217</v>
       </c>
       <c r="G13">
         <v>0.9857552454456368</v>
       </c>
       <c r="H13">
-        <v>1.001209575530365</v>
+        <v>1.001209575530364</v>
       </c>
       <c r="I13">
         <v>0.9903891589145849</v>
@@ -976,10 +976,10 @@
         <v>0.9958515925735141</v>
       </c>
       <c r="L13">
-        <v>0.9847077525664678</v>
+        <v>0.9847077525664679</v>
       </c>
       <c r="M13">
-        <v>0.9904368462661727</v>
+        <v>0.9904368462661726</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1046,7 +1046,7 @@
         <v>1.130380158708225</v>
       </c>
       <c r="H15">
-        <v>0.7463180020601146</v>
+        <v>0.7463180020601147</v>
       </c>
       <c r="I15">
         <v>0.9293919765687166</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9834199757387924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.623327862283947</v>
+      </c>
+      <c r="D16">
+        <v>0.4783232991450093</v>
+      </c>
+      <c r="E16">
+        <v>0.9523107647407856</v>
+      </c>
+      <c r="F16">
+        <v>1.623327862283947</v>
+      </c>
+      <c r="G16">
+        <v>0.6828143876837972</v>
+      </c>
+      <c r="H16">
+        <v>1.35554530157708</v>
+      </c>
+      <c r="I16">
+        <v>1.02730437444241</v>
+      </c>
+      <c r="J16">
+        <v>0.4783232991450093</v>
+      </c>
+      <c r="K16">
+        <v>0.7153170319428974</v>
+      </c>
+      <c r="L16">
+        <v>1.169322447113422</v>
+      </c>
+      <c r="M16">
+        <v>1.019937664978838</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.623327862283947</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW10.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9735639125594217</v>
+        <v>0.9735639125594215</v>
       </c>
       <c r="D13">
         <v>0.9941311660881583</v>
@@ -961,13 +961,13 @@
         <v>0.9975720190588698</v>
       </c>
       <c r="F13">
-        <v>0.9735639125594217</v>
+        <v>0.9735639125594215</v>
       </c>
       <c r="G13">
         <v>0.9857552454456368</v>
       </c>
       <c r="H13">
-        <v>1.001209575530364</v>
+        <v>1.001209575530365</v>
       </c>
       <c r="I13">
         <v>0.9903891589145849</v>
@@ -979,10 +979,10 @@
         <v>0.9958515925735141</v>
       </c>
       <c r="L13">
-        <v>0.9847077525664679</v>
+        <v>0.9847077525664678</v>
       </c>
       <c r="M13">
-        <v>0.9904368462661726</v>
+        <v>0.9904368462661727</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1049,7 +1049,7 @@
         <v>1.130380158708225</v>
       </c>
       <c r="H15">
-        <v>0.7463180020601147</v>
+        <v>0.7463180020601146</v>
       </c>
       <c r="I15">
         <v>0.9293919765687166</v>

--- a/JupyterNotebooks/AveragedIntensites/alpha4F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/alpha4F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.5750160000000021</v>
+        <v>1.623327862283947</v>
       </c>
       <c r="D10">
-        <v>1.232020000000006</v>
+        <v>0.4783232991450093</v>
       </c>
       <c r="E10">
-        <v>1.611004000000001</v>
+        <v>0.9523107647407856</v>
       </c>
       <c r="F10">
-        <v>0.5750160000000021</v>
+        <v>1.623327862283947</v>
       </c>
       <c r="G10">
-        <v>0.3837960000000005</v>
+        <v>0.6828143876837972</v>
       </c>
       <c r="H10">
-        <v>3.303915999999993</v>
+        <v>1.35554530157708</v>
       </c>
       <c r="I10">
-        <v>1.087603999999996</v>
+        <v>1.02730437444241</v>
       </c>
       <c r="J10">
-        <v>1.232020000000006</v>
+        <v>0.4783232991450093</v>
       </c>
       <c r="K10">
-        <v>1.421512000000004</v>
+        <v>0.7153170319428974</v>
       </c>
       <c r="L10">
-        <v>0.998264000000003</v>
+        <v>1.169322447113422</v>
       </c>
       <c r="M10">
-        <v>1.365559333333333</v>
+        <v>1.019937664978838</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.01</v>
+        <v>0.8714425786307027</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.775106686671545</v>
       </c>
       <c r="E11">
-        <v>2.302249999999999</v>
+        <v>1.092091832980529</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.8714425786307027</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.6437831501117769</v>
       </c>
       <c r="H11">
-        <v>4.637637499999999</v>
+        <v>2.471385678643533</v>
       </c>
       <c r="I11">
-        <v>1.407774999999999</v>
+        <v>0.8430965096567369</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.775106686671545</v>
       </c>
       <c r="K11">
-        <v>1.151125</v>
+        <v>1.433599259826037</v>
       </c>
       <c r="L11">
-        <v>0.5805624999999998</v>
+        <v>1.15252091922837</v>
       </c>
       <c r="M11">
-        <v>1.39294375</v>
+        <v>1.282817739449137</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4282489876480028</v>
+        <v>0.873160659192439</v>
       </c>
       <c r="D12">
-        <v>0.4042059431936034</v>
+        <v>1.779061393565964</v>
       </c>
       <c r="E12">
-        <v>1.739115263385601</v>
+        <v>1.090787333581507</v>
       </c>
       <c r="F12">
-        <v>0.4282489876480028</v>
+        <v>0.873160659192439</v>
       </c>
       <c r="G12">
-        <v>0.4110000596992008</v>
+        <v>0.6455285897639559</v>
       </c>
       <c r="H12">
-        <v>3.075290076262394</v>
+        <v>2.461900241651241</v>
       </c>
       <c r="I12">
-        <v>1.22794206208</v>
+        <v>0.8423637239002412</v>
       </c>
       <c r="J12">
-        <v>0.4042059431936034</v>
+        <v>1.779061393565964</v>
       </c>
       <c r="K12">
-        <v>1.071660603289602</v>
+        <v>1.434924363573736</v>
       </c>
       <c r="L12">
-        <v>0.7499547954688025</v>
+        <v>1.154042511383087</v>
       </c>
       <c r="M12">
-        <v>1.214300398711467</v>
+        <v>1.282133656942558</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9735639125594215</v>
+        <v>0.8712482041714945</v>
       </c>
       <c r="D13">
-        <v>0.9941311660881583</v>
+        <v>1.775199653706745</v>
       </c>
       <c r="E13">
-        <v>0.9975720190588698</v>
+        <v>1.091977760806366</v>
       </c>
       <c r="F13">
-        <v>0.9735639125594215</v>
+        <v>0.8712482041714945</v>
       </c>
       <c r="G13">
-        <v>0.9857552454456368</v>
+        <v>0.644183634166565</v>
       </c>
       <c r="H13">
-        <v>1.001209575530365</v>
+        <v>2.471849147176957</v>
       </c>
       <c r="I13">
-        <v>0.9903891589145849</v>
+        <v>0.842128545353979</v>
       </c>
       <c r="J13">
-        <v>0.9941311660881583</v>
+        <v>1.775199653706745</v>
       </c>
       <c r="K13">
-        <v>0.9958515925735141</v>
+        <v>1.433588707256555</v>
       </c>
       <c r="L13">
-        <v>0.9847077525664678</v>
+        <v>1.152418455714025</v>
       </c>
       <c r="M13">
-        <v>0.9904368462661727</v>
+        <v>1.282764490897018</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.228623931902858</v>
+        <v>0.5750160000000021</v>
       </c>
       <c r="D14">
-        <v>1.096688252106518</v>
+        <v>1.232020000000006</v>
       </c>
       <c r="E14">
-        <v>0.9072947566675926</v>
+        <v>1.611004000000001</v>
       </c>
       <c r="F14">
-        <v>1.228623931902858</v>
+        <v>0.5750160000000021</v>
       </c>
       <c r="G14">
-        <v>0.9850364823079195</v>
+        <v>0.3837960000000005</v>
       </c>
       <c r="H14">
-        <v>0.95902990685564</v>
+        <v>3.303915999999993</v>
       </c>
       <c r="I14">
-        <v>0.9264444570442626</v>
+        <v>1.087603999999996</v>
       </c>
       <c r="J14">
-        <v>1.096688252106518</v>
+        <v>1.232020000000006</v>
       </c>
       <c r="K14">
-        <v>1.001991504387056</v>
+        <v>1.421512000000004</v>
       </c>
       <c r="L14">
-        <v>1.115307718144957</v>
+        <v>0.998264000000003</v>
       </c>
       <c r="M14">
-        <v>1.017186297814132</v>
+        <v>1.365559333333333</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9705512491822333</v>
+        <v>0.01</v>
       </c>
       <c r="D15">
-        <v>1.185537839581145</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.93834062833232</v>
+        <v>2.302249999999999</v>
       </c>
       <c r="F15">
-        <v>0.9705512491822333</v>
+        <v>0.01</v>
       </c>
       <c r="G15">
-        <v>1.130380158708225</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.7463180020601146</v>
+        <v>4.637637499999999</v>
       </c>
       <c r="I15">
-        <v>0.9293919765687166</v>
+        <v>1.407774999999999</v>
       </c>
       <c r="J15">
-        <v>1.185537839581145</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.061939233956733</v>
+        <v>1.151125</v>
       </c>
       <c r="L15">
-        <v>1.016245241569483</v>
+        <v>0.5805624999999998</v>
       </c>
       <c r="M15">
-        <v>0.9834199757387924</v>
+        <v>1.39294375</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.623327862283947</v>
+        <v>0.4282489876480028</v>
       </c>
       <c r="D16">
-        <v>0.4783232991450093</v>
+        <v>0.4042059431936034</v>
       </c>
       <c r="E16">
-        <v>0.9523107647407856</v>
+        <v>1.739115263385601</v>
       </c>
       <c r="F16">
-        <v>1.623327862283947</v>
+        <v>0.4282489876480028</v>
       </c>
       <c r="G16">
-        <v>0.6828143876837972</v>
+        <v>0.4110000596992008</v>
       </c>
       <c r="H16">
-        <v>1.35554530157708</v>
+        <v>3.075290076262394</v>
       </c>
       <c r="I16">
-        <v>1.02730437444241</v>
+        <v>1.22794206208</v>
       </c>
       <c r="J16">
-        <v>0.4783232991450093</v>
+        <v>0.4042059431936034</v>
       </c>
       <c r="K16">
-        <v>0.7153170319428974</v>
+        <v>1.071660603289602</v>
       </c>
       <c r="L16">
-        <v>1.169322447113422</v>
+        <v>0.7499547954688025</v>
       </c>
       <c r="M16">
-        <v>1.019937664978838</v>
+        <v>1.214300398711467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9735639125594217</v>
+      </c>
+      <c r="D17">
+        <v>0.9941311660881583</v>
+      </c>
+      <c r="E17">
+        <v>0.9975720190588698</v>
+      </c>
+      <c r="F17">
+        <v>0.9735639125594217</v>
+      </c>
+      <c r="G17">
+        <v>0.9857552454456368</v>
+      </c>
+      <c r="H17">
+        <v>1.001209575530364</v>
+      </c>
+      <c r="I17">
+        <v>0.9903891589145849</v>
+      </c>
+      <c r="J17">
+        <v>0.9941311660881583</v>
+      </c>
+      <c r="K17">
+        <v>0.9958515925735141</v>
+      </c>
+      <c r="L17">
+        <v>0.9847077525664679</v>
+      </c>
+      <c r="M17">
+        <v>0.9904368462661726</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.228623931902858</v>
+      </c>
+      <c r="D18">
+        <v>1.096688252106518</v>
+      </c>
+      <c r="E18">
+        <v>0.9072947566675926</v>
+      </c>
+      <c r="F18">
+        <v>1.228623931902858</v>
+      </c>
+      <c r="G18">
+        <v>0.9850364823079195</v>
+      </c>
+      <c r="H18">
+        <v>0.95902990685564</v>
+      </c>
+      <c r="I18">
+        <v>0.9264444570442626</v>
+      </c>
+      <c r="J18">
+        <v>1.096688252106518</v>
+      </c>
+      <c r="K18">
+        <v>1.001991504387056</v>
+      </c>
+      <c r="L18">
+        <v>1.115307718144957</v>
+      </c>
+      <c r="M18">
+        <v>1.017186297814132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9705512491822333</v>
+      </c>
+      <c r="D19">
+        <v>1.185537839581145</v>
+      </c>
+      <c r="E19">
+        <v>0.93834062833232</v>
+      </c>
+      <c r="F19">
+        <v>0.9705512491822333</v>
+      </c>
+      <c r="G19">
+        <v>1.130380158708225</v>
+      </c>
+      <c r="H19">
+        <v>0.7463180020601147</v>
+      </c>
+      <c r="I19">
+        <v>0.9293919765687166</v>
+      </c>
+      <c r="J19">
+        <v>1.185537839581145</v>
+      </c>
+      <c r="K19">
+        <v>1.061939233956733</v>
+      </c>
+      <c r="L19">
+        <v>1.016245241569483</v>
+      </c>
+      <c r="M19">
+        <v>0.9834199757387924</v>
       </c>
     </row>
   </sheetData>
